--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -1359,6 +1359,12 @@
       <c r="F7" t="s">
         <v>178</v>
       </c>
+      <c r="G7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2158,6 +2164,12 @@
       </c>
       <c r="F38" t="s">
         <v>192</v>
+      </c>
+      <c r="G38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-19</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -1178,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3064,22 +3064,22 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3090,19 +3090,19 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="H74" t="s">
         <v>249</v>
@@ -3116,19 +3116,19 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H75" t="s">
         <v>249</v>
@@ -3142,22 +3142,22 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3168,22 +3168,22 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H77" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3194,19 +3194,19 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="G78" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H78" t="s">
         <v>249</v>
@@ -3220,19 +3220,19 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H79" t="s">
         <v>249</v>
@@ -3246,19 +3246,19 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F80" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H80" t="s">
         <v>249</v>
@@ -3272,19 +3272,19 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="G81" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="H81" t="s">
         <v>249</v>
@@ -3298,19 +3298,19 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F82" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H82" t="s">
         <v>249</v>
@@ -3324,19 +3324,19 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="G83" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H83" t="s">
         <v>249</v>
@@ -3350,19 +3350,19 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G84" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="H84" t="s">
         <v>249</v>
@@ -3376,19 +3376,19 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H85" t="s">
         <v>249</v>
@@ -3402,22 +3402,22 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F86" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="H86" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3428,22 +3428,22 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="G87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3454,22 +3454,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="H88" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3480,22 +3480,22 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G89" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="H89" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3506,22 +3506,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H90" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3532,19 +3532,19 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
         <v>249</v>
@@ -3558,19 +3558,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H92" t="s">
         <v>249</v>
@@ -3584,22 +3584,22 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H93" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3610,22 +3610,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H94" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3636,19 +3636,19 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H95" t="s">
         <v>249</v>
@@ -3662,19 +3662,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="F96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G96" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H96" t="s">
         <v>249</v>
@@ -3688,19 +3688,19 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="F97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H97" t="s">
         <v>249</v>
@@ -3714,19 +3714,19 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H98" t="s">
         <v>249</v>
@@ -3740,22 +3740,22 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G99" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="H99" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3766,22 +3766,22 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F100" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H100" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3792,47 +3792,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="G101" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>174</v>
-      </c>
-      <c r="F102" t="s">
-        <v>229</v>
-      </c>
-      <c r="G102" t="s">
-        <v>232</v>
-      </c>
-      <c r="H102" t="s">
         <v>232</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220419_110642.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -758,9 +758,6 @@
   </si>
   <si>
     <t>SSK</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>기타</t>
@@ -1259,7 +1256,7 @@
         <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1337,7 +1334,7 @@
         <v>234</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1363,7 +1360,7 @@
         <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1415,7 +1412,7 @@
         <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1467,7 +1464,7 @@
         <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1493,7 +1490,7 @@
         <v>237</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1519,7 +1516,7 @@
         <v>238</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1545,7 +1542,7 @@
         <v>239</v>
       </c>
       <c r="H14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1571,7 +1568,7 @@
         <v>240</v>
       </c>
       <c r="H15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1597,7 +1594,7 @@
         <v>241</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1623,7 +1620,7 @@
         <v>242</v>
       </c>
       <c r="H17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1649,7 +1646,7 @@
         <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1675,7 +1672,7 @@
         <v>243</v>
       </c>
       <c r="H19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1701,7 +1698,7 @@
         <v>244</v>
       </c>
       <c r="H20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1727,7 +1724,7 @@
         <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1805,7 +1802,7 @@
         <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1831,7 +1828,7 @@
         <v>243</v>
       </c>
       <c r="H25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1857,7 +1854,7 @@
         <v>248</v>
       </c>
       <c r="H26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1883,7 +1880,7 @@
         <v>231</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1935,7 +1932,7 @@
         <v>239</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1958,10 +1955,10 @@
         <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2013,7 +2010,7 @@
         <v>239</v>
       </c>
       <c r="H32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2039,7 +2036,7 @@
         <v>237</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2062,10 +2059,10 @@
         <v>189</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2140,10 +2137,10 @@
         <v>191</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2169,7 +2166,7 @@
         <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2192,10 +2189,10 @@
         <v>193</v>
       </c>
       <c r="G39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2244,10 +2241,10 @@
         <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2270,10 +2267,10 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2325,7 +2322,7 @@
         <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2348,10 +2345,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2400,10 +2397,10 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2429,7 +2426,7 @@
         <v>248</v>
       </c>
       <c r="H48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2455,7 +2452,7 @@
         <v>243</v>
       </c>
       <c r="H49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2478,10 +2475,10 @@
         <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2507,7 +2504,7 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2533,7 +2530,7 @@
         <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2585,7 +2582,7 @@
         <v>248</v>
       </c>
       <c r="H54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2611,7 +2608,7 @@
         <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2634,10 +2631,10 @@
         <v>202</v>
       </c>
       <c r="G56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2689,7 +2686,7 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2712,10 +2709,10 @@
         <v>204</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2767,7 +2764,7 @@
         <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2793,7 +2790,7 @@
         <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2819,7 +2816,7 @@
         <v>248</v>
       </c>
       <c r="H63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2845,7 +2842,7 @@
         <v>244</v>
       </c>
       <c r="H64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2894,10 +2891,10 @@
         <v>207</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2923,7 +2920,7 @@
         <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2949,7 +2946,7 @@
         <v>239</v>
       </c>
       <c r="H68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2972,10 +2969,10 @@
         <v>208</v>
       </c>
       <c r="G69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2998,10 +2995,10 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3027,7 +3024,7 @@
         <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3053,7 +3050,7 @@
         <v>237</v>
       </c>
       <c r="H72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3079,7 +3076,7 @@
         <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3102,10 +3099,10 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3128,10 +3125,10 @@
         <v>210</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3154,10 +3151,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3180,10 +3177,10 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3209,7 +3206,7 @@
         <v>245</v>
       </c>
       <c r="H78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3235,7 +3232,7 @@
         <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3261,7 +3258,7 @@
         <v>239</v>
       </c>
       <c r="H80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3284,10 +3281,10 @@
         <v>213</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3310,10 +3307,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3339,7 +3336,7 @@
         <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3362,10 +3359,10 @@
         <v>215</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3388,10 +3385,10 @@
         <v>216</v>
       </c>
       <c r="G85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3466,10 +3463,10 @@
         <v>218</v>
       </c>
       <c r="G88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3518,10 +3515,10 @@
         <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3544,10 +3541,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3573,7 +3570,7 @@
         <v>247</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3596,10 +3593,10 @@
         <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3622,10 +3619,10 @@
         <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3648,10 +3645,10 @@
         <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3677,7 +3674,7 @@
         <v>236</v>
       </c>
       <c r="H96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3703,7 +3700,7 @@
         <v>248</v>
       </c>
       <c r="H97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3726,10 +3723,10 @@
         <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3781,7 +3778,7 @@
         <v>239</v>
       </c>
       <c r="H100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:8">
